--- a/src/main/java/it/unisa/c07/biblionet/moduloIntelligenzaArtificiale/dataset/dataset.xlsx
+++ b/src/main/java/it/unisa/c07/biblionet/moduloIntelligenzaArtificiale/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viviana\Documents\GitHub\biblionetAI\src\main\java\it\unisa\c07\biblionet\moduloIntelligenzaArtificiale\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C06B5A-34BF-4233-9259-EC86BA8B6294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD90B39-E827-4B89-8FDD-F06930F0B054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{788EE436-A673-456E-BD35-1D95133373BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{788EE436-A673-456E-BD35-1D95133373BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="150">
   <si>
     <t>Computer, programming, gaming</t>
   </si>
@@ -859,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0BAEB9-F73F-44E0-8031-860F27F46C3B}">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14690,7 +14690,3121 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z156" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z157" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB157" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC157" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z158" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB159" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC159" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB160" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB161" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB162" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC162" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB163" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC163" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y164" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z164" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC164" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z165" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB165" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC165" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z168" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z169" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z170" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z173" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z175" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z180" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z181" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U182" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V182" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W182" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y182" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z182" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB182" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC182" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W183" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X183" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z183" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA183" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB183" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC183" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T184" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W184" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X184" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z184" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA184" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB184" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC184" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z185" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA185" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB185" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC185" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W186" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X186" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z186" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA186" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB186" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC186" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W187" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X187" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y187" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z187" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA187" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB187" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC187" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W188" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X188" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z188" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA188" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC188" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W189" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y189" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z189" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA189" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB189" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC189" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V190" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W190" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X190" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y190" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z190" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA190" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC190" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/it/unisa/c07/biblionet/moduloIntelligenzaArtificiale/dataset/dataset.xlsx
+++ b/src/main/java/it/unisa/c07/biblionet/moduloIntelligenzaArtificiale/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viviana\Documents\GitHub\biblionetAI\src\main\java\it\unisa\c07\biblionet\moduloIntelligenzaArtificiale\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD90B39-E827-4B89-8FDD-F06930F0B054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E10F3A-0F80-4560-9177-1E88CA1858C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{788EE436-A673-456E-BD35-1D95133373BC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="150">
   <si>
     <t>Computer, programming, gaming</t>
   </si>
@@ -859,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0BAEB9-F73F-44E0-8031-860F27F46C3B}">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="C142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,8 +890,9 @@
     <col min="23" max="23" width="19" customWidth="1"/>
     <col min="24" max="24" width="18" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
     <col min="29" max="29" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17805,6 +17806,451 @@
         <v>36</v>
       </c>
     </row>
+    <row r="191" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U191" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V191" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W191" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X191" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y191" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z191" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA191" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB191" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC191" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V192" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W192" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X192" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y192" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z192" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA192" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB192" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC192" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U193" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W193" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X193" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y193" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z193" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA193" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB193" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC193" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V194" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W194" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X194" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y194" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z194" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA194" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB194" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC194" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U195" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V195" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W195" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X195" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y195" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z195" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA195" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB195" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC195" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
